--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16665" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -23,13 +23,13 @@
     <t>type</t>
   </si>
   <si>
-    <t>condtion1</t>
-  </si>
-  <si>
-    <t>condtion2</t>
-  </si>
-  <si>
-    <t>condtion3</t>
+    <t>condition1</t>
+  </si>
+  <si>
+    <t>condition2</t>
+  </si>
+  <si>
+    <t>condition3</t>
   </si>
   <si>
     <t>amount_type</t>
@@ -59,6 +59,9 @@
     <t>[1]</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>[2]</t>
   </si>
   <si>
@@ -87,9 +90,6 @@
   </si>
   <si>
     <t>[1,6,3,8]</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -112,14 +112,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,122 +242,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,67 +264,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,115 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,11 +460,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,9 +547,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,133 +575,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,8 +1031,8 @@
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1110,9 +1110,15 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4">
         <v>1</v>
       </c>
@@ -1128,11 +1134,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="G5">
         <v>1</v>
       </c>
@@ -1148,7 +1160,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1165,7 +1186,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1184,9 +1214,15 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
       <c r="G8">
         <v>2</v>
       </c>
@@ -1202,11 +1238,17 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
       <c r="G9">
         <v>2</v>
       </c>
@@ -1222,7 +1264,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1239,7 +1290,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1252,6 +1312,24 @@
       <c r="A12">
         <v>9</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -1260,6 +1338,24 @@
       <c r="A13">
         <v>10</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>0</v>
       </c>
@@ -1268,6 +1364,24 @@
       <c r="A14">
         <v>11</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
       <c r="H14">
         <v>0</v>
       </c>
@@ -1276,6 +1390,24 @@
       <c r="A15">
         <v>12</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>0</v>
       </c>
@@ -1284,6 +1416,24 @@
       <c r="A16">
         <v>13</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
       <c r="H16">
         <v>0</v>
       </c>
@@ -1291,6 +1441,24 @@
     <row r="17" spans="1:8">
       <c r="A17">
         <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1306,9 +1474,15 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
@@ -1324,11 +1498,17 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
@@ -1344,7 +1524,16 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1361,7 +1550,16 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1378,7 +1576,16 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1395,7 +1602,16 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1412,7 +1628,16 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1432,10 +1657,13 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1452,13 +1680,16 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1475,7 +1706,16 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1487,6 +1727,21 @@
     <row r="28" spans="1:8">
       <c r="A28">
         <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1506,8 +1761,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1517,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1533,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1541,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1549,7 +1804,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="14280" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -47,7 +47,7 @@
     <t>repeated</t>
   </si>
   <si>
-    <t>1杀怪2对话npc3完成相应条件4使用类型物品5条件池6升级</t>
+    <t>1杀怪2对话npc3完成相应条件4使用类型物品5条件池6升级7不是表里的条件</t>
   </si>
   <si>
     <t>0:累计 (如累计充值人民币1万元) 1:拥有 (如拥有一万砖石)</t>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>condition_id</t>
+  </si>
+  <si>
+    <t>condtion_order</t>
+  </si>
+  <si>
+    <t>0并行1顺序</t>
   </si>
   <si>
     <t>[1,6,3,8]</t>
@@ -97,9 +103,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -126,7 +132,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,6 +140,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +224,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -225,7 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -240,20 +260,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -264,31 +270,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,49 +414,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,97 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,15 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,6 +544,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -566,7 +572,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,36 +581,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -614,94 +617,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1747,6 +1753,32 @@
         <v>1</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>0</v>
       </c>
     </row>
@@ -1759,51 +1791,72 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14280" windowHeight="8850"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -47,7 +47,7 @@
     <t>repeated</t>
   </si>
   <si>
-    <t>1杀怪2对话npc3完成相应条件4使用类型物品5条件池6升级7不是表里的条件</t>
+    <t>1杀怪2对话npc3完成相应条件4使用类型物品5条件池6升级7不是表里的条件8完成相应任务</t>
   </si>
   <si>
     <t>0:累计 (如累计充值人民币1万元) 1:拥有 (如拥有一万砖石)</t>
@@ -103,9 +103,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -117,6 +117,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -126,34 +157,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,9 +170,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,10 +216,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,22 +240,13 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -230,32 +254,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,43 +270,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,73 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,19 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,37 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,50 +479,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,15 +505,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -561,6 +513,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1779,6 +1779,32 @@
         <v>1</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="14280" windowHeight="8850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>condition_id</t>
   </si>
   <si>
-    <t>condtion_order</t>
+    <t>condition_order</t>
   </si>
   <si>
     <t>0并行1顺序</t>
@@ -103,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,6 +114,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,7 +154,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,38 +215,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,13 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,50 +247,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,13 +260,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -270,12 +270,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -288,169 +420,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,11 +479,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,45 +556,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -569,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,16 +581,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,115 +599,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,7 +1037,7 @@
   <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1819,8 +1819,8 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1878,12 +1878,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14280" windowHeight="8850" activeTab="1"/>
+    <workbookView windowWidth="14280" windowHeight="9960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -89,6 +89,9 @@
     <t>condition_id</t>
   </si>
   <si>
+    <t>random_condition_pool</t>
+  </si>
+  <si>
     <t>condition_order</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
   </si>
   <si>
     <t>[1,6,3,8]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5,6,7,8,9,10]</t>
   </si>
 </sst>
 </file>
@@ -103,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,21 +124,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,7 +161,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,6 +192,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -199,14 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -223,6 +237,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -231,29 +252,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -270,31 +276,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,151 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +467,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,6 +494,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -490,6 +520,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,41 +567,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,8 +1043,8 @@
   <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1817,19 +1823,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="2" max="3" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1839,8 +1845,11 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1848,45 +1857,85 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    <row r="3" spans="4:4">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14280" windowHeight="9960" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>luhailong</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1:主线</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1:主线1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -90,6 +124,12 @@
   </si>
   <si>
     <t>random_condition_pool</t>
+  </si>
+  <si>
+    <t>mission_type</t>
+  </si>
+  <si>
+    <t>mission_sub_type</t>
   </si>
   <si>
     <t>condition_order</t>
@@ -109,17 +149,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,7 +178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,13 +193,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -161,7 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,14 +225,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,16 +269,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,11 +286,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -276,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,16 +539,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -526,17 +571,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -553,17 +587,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1823,19 +1868,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="3" width="20.25" customWidth="1"/>
+    <col min="2" max="5" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1848,8 +1893,14 @@
       <c r="D1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1862,13 +1913,19 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="4:4">
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="6:6">
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1879,15 +1936,21 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1895,8 +1958,14 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1904,13 +1973,19 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1918,13 +1993,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1932,14 +2013,21 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="16575" windowHeight="10545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -49,12 +49,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>type</t>
+    <t>condition_type</t>
   </si>
   <si>
     <t>condition1</t>
@@ -63,9 +63,6 @@
     <t>condition2</t>
   </si>
   <si>
-    <t>condition3</t>
-  </si>
-  <si>
     <t>amount_type</t>
   </si>
   <si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t>condition_order</t>
+  </si>
+  <si>
+    <t>auto_reward</t>
+  </si>
+  <si>
+    <t>reward_id</t>
   </si>
   <si>
     <t>0并行1顺序</t>
@@ -151,8 +154,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -163,22 +166,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,8 +218,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,24 +241,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,10 +271,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,31 +288,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,21 +303,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -321,19 +324,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,37 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,19 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,97 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,15 +515,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,6 +548,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -573,16 +576,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,11 +609,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,15 +1089,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1116,74 +1119,65 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1191,25 +1185,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1217,25 +1208,22 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1243,25 +1231,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1269,25 +1254,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1295,25 +1277,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1321,25 +1300,22 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1347,25 +1323,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1373,25 +1346,22 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1399,25 +1369,22 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1425,25 +1392,22 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1451,51 +1415,45 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1503,25 +1461,22 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1529,25 +1484,22 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1555,25 +1507,22 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1581,25 +1530,22 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1607,25 +1553,22 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1633,25 +1576,22 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1659,25 +1599,22 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1685,25 +1622,22 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1711,25 +1645,22 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1737,25 +1668,22 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1763,25 +1691,22 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1789,25 +1714,22 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1815,25 +1737,22 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1841,21 +1760,18 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
         <v>0</v>
       </c>
     </row>
@@ -1868,72 +1784,84 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="5" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="6:6">
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1944,16 +1872,22 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1964,16 +1898,22 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1984,16 +1924,22 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2004,16 +1950,22 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2023,6 +1975,12 @@
       </c>
       <c r="F8">
         <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -10,6 +10,9 @@
     <sheet name="condition" sheetId="1" r:id="rId1"/>
     <sheet name="mission" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">condition!$B:$B</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -78,7 +81,7 @@
     <t>repeated</t>
   </si>
   <si>
-    <t>1杀怪2对话npc3完成相应条件4使用类型物品5条件池6升级7不是表里的条件8完成相应任务</t>
+    <t>1杀怪2对话npc3完成相应条件4使用类型物品5交互6升级7不是表里的条件8完成相应任务</t>
   </si>
   <si>
     <t>0:累计 (如累计充值人民币1万元) 1:拥有 (如拥有一万砖石)</t>
@@ -102,6 +105,9 @@
     <t>[4]</t>
   </si>
   <si>
+    <t>[5]</t>
+  </si>
+  <si>
     <t>[1,2,3,4]</t>
   </si>
   <si>
@@ -145,6 +151,9 @@
   </si>
   <si>
     <t>[1,2,3,4,5,6,7,8,9,10]</t>
+  </si>
+  <si>
+    <t>[1,15,19,22,24,23]</t>
   </si>
 </sst>
 </file>
@@ -152,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -163,36 +172,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,9 +189,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,22 +205,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,15 +219,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,11 +242,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,9 +257,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,7 +298,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,37 +333,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,37 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,19 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,73 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,21 +538,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,13 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,6 +613,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +644,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,7 +1101,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="A27" sqref="$A27:$XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1346,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -1369,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -1392,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -1415,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -1438,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -1576,7 +1585,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -1599,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -1622,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -1668,10 +1677,10 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1691,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -1784,13 +1793,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="5" width="20.25" customWidth="1"/>
@@ -1801,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1850,7 +1859,7 @@
     </row>
     <row r="3" spans="6:6">
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1858,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1884,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1913,7 +1922,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1939,7 +1948,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1965,7 +1974,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1980,6 +1989,32 @@
         <v>1</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
     </row>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16575" windowHeight="10545" activeTab="1"/>
+    <workbookView windowWidth="16575" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -183,7 +183,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,18 +217,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,24 +235,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,13 +305,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -333,25 +333,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,151 +495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,73 +644,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -719,58 +719,58 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,8 +1100,8 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1795,7 +1795,7 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16575" windowHeight="10545"/>
+    <workbookView windowWidth="16575" windowHeight="10545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -175,6 +175,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -183,21 +198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,19 +218,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,6 +236,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +280,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -298,21 +313,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -333,31 +333,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,49 +453,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,85 +501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +524,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -538,15 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,23 +569,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,8 +593,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,145 +632,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1100,7 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1795,8 +1795,8 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1945,7 +1945,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16575" windowHeight="10545" activeTab="1"/>
+    <workbookView windowWidth="20475" windowHeight="10545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -144,6 +144,9 @@
     <t>reward_id</t>
   </si>
   <si>
+    <t>next_mission_id</t>
+  </si>
+  <si>
     <t>0并行1顺序</t>
   </si>
   <si>
@@ -154,6 +157,18 @@
   </si>
   <si>
     <t>[1,15,19,22,24,23]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
   </si>
 </sst>
 </file>
@@ -161,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,6 +187,51 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,28 +244,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,13 +267,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,44 +283,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,7 +306,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,15 +321,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,187 +348,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,78 +539,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -624,6 +567,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -632,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,133 +659,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1793,19 +1808,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="5" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1830,8 +1845,11 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1856,13 +1874,16 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="6:6">
       <c r="F3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1887,13 +1908,16 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1913,8 +1937,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1922,7 +1949,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1939,8 +1966,11 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1965,8 +1995,11 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1974,7 +2007,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1991,13 +2024,16 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -2016,6 +2052,212 @@
       </c>
       <c r="H9">
         <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -123,6 +123,12 @@
     <t>[10]</t>
   </si>
   <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
     <t>condition_id</t>
   </si>
   <si>
@@ -169,6 +175,9 @@
   </si>
   <si>
     <t>[12]</t>
+  </si>
+  <si>
+    <t>[27,28]</t>
   </si>
 </sst>
 </file>
@@ -176,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -197,24 +206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,38 +229,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,9 +259,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,10 +307,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,15 +323,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,6 +336,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -348,25 +357,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,31 +489,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,121 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,17 +551,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +571,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -579,15 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,7 +620,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,23 +643,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +656,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,133 +668,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,10 +1122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1784,7 +1793,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -1796,6 +1805,29 @@
         <v>1</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>0</v>
       </c>
     </row>
@@ -1808,10 +1840,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G14" sqref="G14:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1825,28 +1857,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1880,7 +1912,7 @@
     </row>
     <row r="3" spans="6:6">
       <c r="F3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1917,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1949,7 +1981,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2007,7 +2039,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2033,7 +2065,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -2083,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2112,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2170,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2199,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2242,7 +2274,7 @@
         <v>13</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2257,6 +2289,93 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
         <v>13</v>
       </c>
     </row>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="10545" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -47,12 +47,24 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0并行1顺序</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -151,9 +163,6 @@
   </si>
   <si>
     <t>next_mission_id</t>
-  </si>
-  <si>
-    <t>0并行1顺序</t>
   </si>
   <si>
     <t>[1,6,3,8]</t>
@@ -185,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -196,36 +205,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,7 +224,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -275,10 +274,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,6 +300,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -329,15 +337,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,43 +366,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,31 +498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,66 +534,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -520,18 +541,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,26 +557,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -625,6 +614,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -648,6 +646,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -656,145 +665,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1161,10 +1170,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1176,72 +1185,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" t="s">
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -1258,13 +1229,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -1281,13 +1252,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -1296,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1304,13 +1275,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -1319,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1327,13 +1298,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -1350,13 +1321,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -1373,13 +1344,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -1396,13 +1367,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
+      <c r="C13" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -1419,13 +1390,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -1442,13 +1413,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -1465,13 +1436,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -1488,13 +1459,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -1511,22 +1482,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1534,22 +1505,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1557,13 +1528,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -1580,13 +1551,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
-        <v>16</v>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -1603,13 +1574,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -1626,13 +1597,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -1649,13 +1620,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -1672,16 +1643,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1695,16 +1666,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1718,16 +1689,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1741,16 +1712,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1764,15 +1735,15 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E29">
@@ -1787,13 +1758,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -1810,24 +1781,70 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <v>8</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>24</v>
       </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>0</v>
       </c>
     </row>
@@ -1840,10 +1857,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1886,10 +1903,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1907,87 +1924,35 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="6:6">
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2004,10 +1969,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -2016,13 +1981,13 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -2033,19 +1998,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2062,10 +2027,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -2091,13 +2056,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2115,15 +2080,15 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -2144,15 +2109,15 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -2173,15 +2138,15 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -2202,15 +2167,15 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -2231,15 +2196,15 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -2260,21 +2225,21 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2289,21 +2254,21 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2323,19 +2288,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2352,30 +2317,88 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19">
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
         <v>13</v>
       </c>
     </row>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="17625" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>repeated</t>
+  </si>
+  <si>
+    <t>server</t>
   </si>
   <si>
     <t>1杀怪2对话npc3完成相应条件4使用类型物品5交互6升级7不是表里的条件8完成相应任务</t>
@@ -194,9 +197,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -208,21 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -237,6 +233,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -244,15 +271,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,19 +303,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,39 +348,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,13 +369,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,169 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,16 +563,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -586,6 +600,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,8 +637,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,37 +652,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,133 +680,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,10 +1134,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1197,48 +1200,45 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="G5" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1252,16 +1252,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1298,22 +1298,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
+      <c r="C10" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1321,16 +1321,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1344,16 +1344,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1376,7 +1376,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1390,16 +1390,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
+      <c r="C14" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1413,16 +1413,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1491,7 +1491,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1505,16 +1505,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,22 +1528,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1551,16 +1551,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1574,16 +1574,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1606,7 +1606,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1620,16 +1620,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1652,7 +1652,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1675,7 +1675,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1689,15 +1689,15 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E27">
@@ -1712,16 +1712,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1735,16 +1735,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1758,16 +1758,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1781,16 +1781,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1804,16 +1804,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -1836,7 +1836,7 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1845,6 +1845,29 @@
         <v>1</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>0</v>
       </c>
     </row>
@@ -1857,10 +1880,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1874,28 +1897,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1938,73 +1961,44 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2013,33 +2007,33 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2051,18 +2045,18 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2080,19 +2074,19 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -2109,18 +2103,18 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2138,18 +2132,18 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2172,13 +2166,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2196,18 +2190,18 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2225,18 +2219,18 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2259,13 +2253,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2283,21 +2277,21 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2312,21 +2306,21 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2341,24 +2335,24 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2370,24 +2364,24 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2399,7 +2393,36 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
         <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -87,13 +87,19 @@
     <t>operator</t>
   </si>
   <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
     <t>repeated</t>
   </si>
   <si>
-    <t>server</t>
+    <t>common</t>
   </si>
   <si>
     <t>1杀怪2对话npc3完成相应条件4使用类型物品5交互6升级7不是表里的条件8完成相应任务</t>
@@ -218,47 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,7 +240,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,20 +285,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -329,6 +296,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,8 +323,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,73 +375,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,109 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,17 +566,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,21 +599,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -630,15 +610,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +631,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -668,10 +674,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,133 +686,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,15 +1140,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,67 +1170,82 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1235,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1258,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1281,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1304,10 +1325,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1327,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1350,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1373,10 +1394,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1396,10 +1417,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1419,10 +1440,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1442,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1465,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1488,10 +1509,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1511,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1534,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1557,10 +1578,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1580,10 +1601,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1603,10 +1624,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1626,10 +1647,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1649,10 +1670,10 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1672,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1695,10 +1716,10 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1718,10 +1739,10 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1741,10 +1762,10 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1764,10 +1785,10 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1787,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1810,10 +1831,10 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1833,10 +1854,10 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1856,10 +1877,10 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1897,68 +1918,68 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1966,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1987,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1995,10 +2016,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2016,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2024,10 +2045,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2045,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2053,10 +2074,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2074,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2082,10 +2103,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2103,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2111,10 +2132,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2132,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2140,10 +2161,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2161,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2169,10 +2190,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2190,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2198,10 +2219,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2219,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2227,10 +2248,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2248,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2256,10 +2277,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2277,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2285,10 +2306,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2306,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2314,10 +2335,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>9</v>
@@ -2335,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2343,10 +2364,10 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2364,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2372,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2393,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2401,10 +2422,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2422,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17625" windowHeight="8235"/>
+    <workbookView windowWidth="17625" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>common</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
   <si>
     <t>1杀怪2对话npc3完成相应条件4使用类型物品5交互6升级7不是表里的条件8完成相应任务</t>
@@ -203,8 +206,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -217,6 +220,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -224,8 +242,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,30 +273,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,22 +319,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -325,7 +336,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,22 +344,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +357,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -375,55 +378,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,127 +546,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,16 +572,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -595,6 +598,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,27 +646,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -674,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,10 +1143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1237,52 +1240,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="G6" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1296,16 +1281,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1319,7 +1304,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1328,7 +1313,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1342,22 +1327,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1365,16 +1350,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1388,16 +1373,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1411,7 +1396,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1420,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1434,16 +1419,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
+      <c r="C15" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1457,16 +1442,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1480,7 +1465,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1489,7 +1474,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1503,7 +1488,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1512,7 +1497,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1526,7 +1511,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1535,7 +1520,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,16 +1534,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,22 +1557,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1595,16 +1580,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1618,16 +1603,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1641,7 +1626,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1650,7 +1635,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1664,16 +1649,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1687,7 +1672,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1696,7 +1681,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1710,7 +1695,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1719,7 +1704,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1733,15 +1718,15 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E28">
@@ -1756,16 +1741,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1779,16 +1764,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
         <v>25</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1802,16 +1787,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1825,16 +1810,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1848,16 +1833,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1871,7 +1856,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -1880,7 +1865,7 @@
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1889,6 +1874,29 @@
         <v>1</v>
       </c>
       <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>0</v>
       </c>
     </row>
@@ -1918,28 +1926,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1987,10 +1995,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2008,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2016,10 +2024,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2037,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2045,10 +2053,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2066,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2074,10 +2082,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2095,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2103,10 +2111,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2124,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2132,10 +2140,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2153,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2161,10 +2169,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2182,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2190,10 +2198,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2211,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2219,10 +2227,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2240,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2248,10 +2256,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2269,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2277,10 +2285,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2298,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2306,10 +2314,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2327,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2335,10 +2343,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>9</v>
@@ -2356,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2364,10 +2372,10 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2385,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2393,10 +2401,10 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2414,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2422,10 +2430,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2443,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17625" windowHeight="9930"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -206,8 +206,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -220,11 +220,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,7 +258,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,84 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -350,8 +327,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,6 +357,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -378,49 +378,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,121 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,21 +569,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,10 +589,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -624,15 +607,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,6 +635,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -669,6 +658,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -677,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,8 +1145,8 @@
   <sheetPr/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1911,8 +1911,8 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1990,6 +1990,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="7" spans="1:9">
       <c r="A7">
         <v>1</v>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="18105" windowHeight="11100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -102,79 +102,79 @@
     <t>common</t>
   </si>
   <si>
+    <t>1杀怪2对话npc3完成相应条件4使用类型物品5交互6升级7不是表里的条件8完成相应任务</t>
+  </si>
+  <si>
+    <t>0:累计 (如累计充值人民币1万元) 1:拥有 (如拥有一万砖石)</t>
+  </si>
+  <si>
+    <t>0: == 1:&lt; 2: &lt;= 3: &gt; 3&gt;=</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+  </si>
+  <si>
+    <t>[5,6,7,8]</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5,6,7,8]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>condition_id</t>
+  </si>
+  <si>
+    <t>random_condition_pool</t>
+  </si>
+  <si>
+    <t>mission_type</t>
+  </si>
+  <si>
+    <t>mission_sub_type</t>
+  </si>
+  <si>
+    <t>condition_order</t>
+  </si>
+  <si>
+    <t>auto_reward</t>
+  </si>
+  <si>
+    <t>reward_id</t>
+  </si>
+  <si>
+    <t>next_mission_id</t>
+  </si>
+  <si>
     <t>key</t>
-  </si>
-  <si>
-    <t>1杀怪2对话npc3完成相应条件4使用类型物品5交互6升级7不是表里的条件8完成相应任务</t>
-  </si>
-  <si>
-    <t>0:累计 (如累计充值人民币1万元) 1:拥有 (如拥有一万砖石)</t>
-  </si>
-  <si>
-    <t>0: == 1:&lt; 2: &lt;= 3: &gt; 3&gt;=</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[1,2,3,4]</t>
-  </si>
-  <si>
-    <t>[5,6,7,8]</t>
-  </si>
-  <si>
-    <t>[1,2]</t>
-  </si>
-  <si>
-    <t>[1,2,3,4,5,6,7,8]</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>[15]</t>
-  </si>
-  <si>
-    <t>[16]</t>
-  </si>
-  <si>
-    <t>condition_id</t>
-  </si>
-  <si>
-    <t>random_condition_pool</t>
-  </si>
-  <si>
-    <t>mission_type</t>
-  </si>
-  <si>
-    <t>mission_sub_type</t>
-  </si>
-  <si>
-    <t>condition_order</t>
-  </si>
-  <si>
-    <t>auto_reward</t>
-  </si>
-  <si>
-    <t>reward_id</t>
-  </si>
-  <si>
-    <t>next_mission_id</t>
   </si>
   <si>
     <t>[1,6,3,8]</t>
@@ -206,8 +206,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -221,32 +221,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,8 +241,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,26 +295,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,24 +328,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,13 +358,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -378,187 +378,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +569,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,35 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,17 +632,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1240,20 +1240,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1264,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1287,10 +1282,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1310,10 +1305,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1333,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1356,10 +1351,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1379,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1402,10 +1397,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1425,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1448,10 +1443,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1471,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1494,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1517,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1540,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1563,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1586,10 +1581,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1609,10 +1604,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1632,10 +1627,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1655,10 +1650,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1678,10 +1673,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1701,10 +1696,10 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1724,10 +1719,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1747,10 +1742,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1770,10 +1765,10 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1793,10 +1788,10 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1816,10 +1811,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1839,10 +1834,10 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1862,10 +1857,10 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1885,10 +1880,10 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1912,7 +1907,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1926,28 +1921,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2019,15 +2014,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="4:5">
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="7" spans="1:9">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2045,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2056,7 +2059,7 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2074,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2082,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -2103,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2111,10 +2114,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2132,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2140,7 +2143,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -2161,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2172,7 +2175,7 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2190,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2198,10 +2201,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2227,10 +2230,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2256,10 +2259,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2277,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2285,10 +2288,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2314,10 +2317,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2343,10 +2346,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2364,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2372,10 +2375,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>9</v>
@@ -2393,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2404,7 +2407,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2422,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2430,10 +2433,10 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2451,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2459,10 +2462,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2480,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -206,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -220,44 +220,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,9 +243,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,11 +295,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,27 +318,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,13 +340,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,8 +348,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,187 +378,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,17 +572,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,50 +596,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,6 +630,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -677,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1904,10 +1904,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2022,41 +2022,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -2065,13 +2036,13 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2082,13 +2053,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2097,10 +2068,10 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -2111,19 +2082,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2140,13 +2111,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2169,13 +2140,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2198,10 +2169,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -2222,12 +2193,12 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -2251,15 +2222,15 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -2280,15 +2251,15 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -2309,15 +2280,15 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -2338,15 +2309,15 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -2367,21 +2338,21 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2401,16 +2372,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2430,19 +2401,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2459,7 +2430,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -2471,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2483,6 +2454,35 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
         <v>16</v>
       </c>
     </row>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18105" windowHeight="11100" activeTab="1"/>
+    <workbookView windowWidth="18105" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
-    <sheet name="mission" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">condition!$B:$B</definedName>
@@ -17,54 +16,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>luhailong</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1:主线</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1:主线1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0并行1顺序</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -148,57 +101,6 @@
   </si>
   <si>
     <t>[16]</t>
-  </si>
-  <si>
-    <t>condition_id</t>
-  </si>
-  <si>
-    <t>random_condition_pool</t>
-  </si>
-  <si>
-    <t>mission_type</t>
-  </si>
-  <si>
-    <t>mission_sub_type</t>
-  </si>
-  <si>
-    <t>condition_order</t>
-  </si>
-  <si>
-    <t>auto_reward</t>
-  </si>
-  <si>
-    <t>reward_id</t>
-  </si>
-  <si>
-    <t>next_mission_id</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>[1,6,3,8]</t>
-  </si>
-  <si>
-    <t>[1,2,3,4,5,6,7,8,9,10]</t>
-  </si>
-  <si>
-    <t>[1,15,19,22,24,23]</t>
-  </si>
-  <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>[11]</t>
-  </si>
-  <si>
-    <t>[12]</t>
-  </si>
-  <si>
-    <t>[27,28]</t>
   </si>
 </sst>
 </file>
@@ -206,17 +108,107 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,90 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,8 +242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,23 +260,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -378,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,15 +466,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -614,19 +502,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,6 +541,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -677,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1042,7 @@
   <sheetPr/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
@@ -1899,596 +1796,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="5" width="20.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5">
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -110,8 +110,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -123,9 +123,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,22 +151,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,8 +167,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,7 +222,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,11 +251,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,60 +265,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -275,13 +275,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,25 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,102 +449,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,30 +456,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +466,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,6 +489,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,15 +552,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -525,47 +566,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\turn-based-game\bin\config\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD32BB9-A23F-477D-ADD9-90E5438055E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18105" windowHeight="11100"/>
+    <workbookView xWindow="9375" yWindow="4230" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -37,9 +43,6 @@
     <t>amount</t>
   </si>
   <si>
-    <t>operator</t>
-  </si>
-  <si>
     <t>design</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>0:累计 (如累计充值人民币1万元) 1:拥有 (如拥有一万砖石)</t>
   </si>
   <si>
-    <t>0: == 1:&lt; 2: &lt;= 3: &gt; 3&gt;=</t>
-  </si>
-  <si>
     <t>[1]</t>
   </si>
   <si>
@@ -101,19 +101,21 @@
   </si>
   <si>
     <t>[16]</t>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0: &gt;= 1:&gt; 2: &lt;= 3: &lt; 4:== </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,345 +124,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -468,315 +155,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1034,21 +438,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,122 +471,122 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4">
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1194,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1202,10 +606,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1217,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1225,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1240,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1248,10 +652,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1263,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1271,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1286,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1294,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1309,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1317,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1332,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1340,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1355,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1363,10 +767,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1378,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1386,10 +790,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1401,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1409,10 +813,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1424,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1432,10 +836,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1447,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>14</v>
       </c>
@@ -1455,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1470,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>15</v>
       </c>
@@ -1478,10 +882,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1493,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>16</v>
       </c>
@@ -1501,10 +905,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1516,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>17</v>
       </c>
@@ -1524,10 +928,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1539,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>18</v>
       </c>
@@ -1547,10 +951,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1562,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>19</v>
       </c>
@@ -1570,10 +974,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1585,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>20</v>
       </c>
@@ -1593,10 +997,10 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1608,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>21</v>
       </c>
@@ -1616,10 +1020,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1631,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>22</v>
       </c>
@@ -1639,11 +1043,11 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
       <c r="E29">
         <v>0</v>
       </c>
@@ -1654,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>23</v>
       </c>
@@ -1662,10 +1066,10 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1677,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>24</v>
       </c>
@@ -1685,10 +1089,10 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1700,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>25</v>
       </c>
@@ -1708,10 +1112,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1723,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>26</v>
       </c>
@@ -1731,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1746,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>27</v>
       </c>
@@ -1754,10 +1158,10 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1769,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>28</v>
       </c>
@@ -1777,10 +1181,10 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1793,7 +1197,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\turn-based-game\bin\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD32BB9-A23F-477D-ADD9-90E5438055E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12445EE-B33A-4F00-B1C4-35EE04A8B77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="4230" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -108,6 +108,14 @@
   </si>
   <si>
     <t xml:space="preserve">0: &gt;= 1:&gt; 2: &lt;= 3: &lt; 4:== </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,23 +473,29 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -503,16 +517,28 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -535,24 +561,30 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -565,17 +597,23 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -588,17 +626,23 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -611,17 +655,23 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4</v>
       </c>
@@ -634,17 +684,23 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -657,17 +713,23 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -680,17 +742,23 @@
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>7</v>
       </c>
@@ -703,17 +771,23 @@
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>8</v>
       </c>
@@ -726,17 +800,23 @@
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>9</v>
       </c>
@@ -749,17 +829,23 @@
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>10</v>
       </c>
@@ -772,17 +858,23 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>11</v>
       </c>
@@ -795,17 +887,23 @@
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>12</v>
       </c>
@@ -818,17 +916,23 @@
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>13</v>
       </c>
@@ -841,17 +945,23 @@
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>14</v>
       </c>
@@ -864,17 +974,23 @@
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>15</v>
       </c>
@@ -887,17 +1003,23 @@
       <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>16</v>
       </c>
@@ -910,17 +1032,23 @@
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>17</v>
       </c>
@@ -933,17 +1061,23 @@
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>18</v>
       </c>
@@ -956,17 +1090,23 @@
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>19</v>
       </c>
@@ -979,17 +1119,23 @@
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>20</v>
       </c>
@@ -1002,17 +1148,23 @@
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>21</v>
       </c>
@@ -1025,17 +1177,23 @@
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>22</v>
       </c>
@@ -1048,17 +1206,23 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>23</v>
       </c>
@@ -1071,17 +1235,23 @@
       <c r="D30" t="s">
         <v>22</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>24</v>
       </c>
@@ -1094,17 +1264,23 @@
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>25</v>
       </c>
@@ -1117,17 +1293,23 @@
       <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>26</v>
       </c>
@@ -1140,17 +1322,23 @@
       <c r="D33" t="s">
         <v>14</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>27</v>
       </c>
@@ -1163,17 +1351,23 @@
       <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>28</v>
       </c>
@@ -1186,19 +1380,25 @@
       <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
       </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\turn-based-game\bin\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\turn-based-game\bin\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12445EE-B33A-4F00-B1C4-35EE04A8B77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="3465" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -58,9 +57,6 @@
     <t>common</t>
   </si>
   <si>
-    <t>1杀怪2对话npc3完成相应条件4使用类型物品5交互6升级7不是表里的条件8完成相应任务</t>
-  </si>
-  <si>
     <t>0:累计 (如累计充值人民币1万元) 1:拥有 (如拥有一万砖石)</t>
   </si>
   <si>
@@ -116,13 +112,17 @@
   </si>
   <si>
     <t>condition4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1杀怪2对话npc3完成相应条件4使用类型物品5交互6升级7不是表里的条件8完成相应任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,11 +451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -474,10 +474,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -575,13 +575,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -592,16 +592,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -621,16 +621,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -708,16 +708,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -882,16 +882,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -911,16 +911,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -969,16 +969,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -998,16 +998,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1027,16 +1027,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1085,16 +1085,16 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1143,16 +1143,16 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1201,16 +1201,16 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1230,16 +1230,16 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1317,16 +1317,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1346,16 +1346,16 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35">
         <v>0</v>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\turn-based-game\bin\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="3465" windowWidth="21600" windowHeight="11295"/>
+    <workbookView windowWidth="21360" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -36,12 +31,21 @@
     <t>condition2</t>
   </si>
   <si>
+    <t>condition3</t>
+  </si>
+  <si>
+    <t>condition4</t>
+  </si>
+  <si>
     <t>amount_type</t>
   </si>
   <si>
     <t>amount</t>
   </si>
   <si>
+    <t>operation</t>
+  </si>
+  <si>
     <t>design</t>
   </si>
   <si>
@@ -57,9 +61,18 @@
     <t>common</t>
   </si>
   <si>
+    <t>1杀怪2对话npc3完成相应条件4使用类型物品5交互6升级7不是表里的条件8完成相应任务</t>
+  </si>
+  <si>
     <t>0:累计 (如累计充值人民币1万元) 1:拥有 (如拥有一万砖石)</t>
   </si>
   <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: &gt;= 1:&gt; 2: &lt;= 3: &lt; 4:== </t>
+  </si>
+  <si>
     <t>[1]</t>
   </si>
   <si>
@@ -99,31 +112,20 @@
     <t>[16]</t>
   </si>
   <si>
-    <t>operation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0: &gt;= 1:&gt; 2: &lt;= 3: &lt; 4:== </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1杀怪2对话npc3完成相应条件4使用类型物品5交互6升级7不是表里的条件8完成相应任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>杀春节的年兽2个</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,9 +134,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -142,20 +144,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -163,9 +487,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -173,22 +739,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -446,21 +1056,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,135 +1086,138 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -613,24 +1229,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -642,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>3</v>
       </c>
@@ -650,16 +1266,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -671,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>4</v>
       </c>
@@ -679,16 +1295,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -700,24 +1316,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -729,24 +1345,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -758,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>7</v>
       </c>
@@ -766,16 +1382,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -787,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>8</v>
       </c>
@@ -795,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -816,24 +1432,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -845,24 +1461,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -874,24 +1490,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>11</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>13</v>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -903,24 +1519,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -932,24 +1548,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>13</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -961,24 +1577,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>14</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -990,24 +1606,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>15</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1019,24 +1635,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>16</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>13</v>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1048,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>17</v>
       </c>
@@ -1056,16 +1672,16 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1077,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>18</v>
       </c>
@@ -1085,16 +1701,16 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1106,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>19</v>
       </c>
@@ -1114,16 +1730,16 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1135,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>20</v>
       </c>
@@ -1143,16 +1759,16 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1164,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>21</v>
       </c>
@@ -1172,16 +1788,16 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1193,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>22</v>
       </c>
@@ -1201,16 +1817,16 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1222,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>23</v>
       </c>
@@ -1230,16 +1846,16 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1251,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>24</v>
       </c>
@@ -1259,16 +1875,16 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1280,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>25</v>
       </c>
@@ -1288,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1309,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>26</v>
       </c>
@@ -1317,16 +1933,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1338,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>27</v>
       </c>
@@ -1346,16 +1962,16 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1367,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>28</v>
       </c>
@@ -1375,16 +1991,16 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1396,9 +2012,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="10620"/>
+    <workbookView windowWidth="21220" windowHeight="17160"/>
   </bookViews>
   <sheets>
     <sheet name="condition" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">condition!$B:$B</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,7 +56,7 @@
     <t>amount</t>
   </si>
   <si>
-    <t>operation</t>
+    <t>comparison</t>
   </si>
   <si>
     <t>design</t>
@@ -118,54 +131,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,14 +160,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,6 +199,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,7 +264,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,49 +300,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,121 +438,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,21 +491,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,6 +523,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,148 +596,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -739,59 +745,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1064,13 +1070,13 @@
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="13.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21220" windowHeight="17160"/>
+    <workbookView windowWidth="21440" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="condition" sheetId="1" r:id="rId1"/>
+    <sheet name="Condition" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">condition!$B:$B</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Condition!$B:$B</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/conditions.xlsx
+++ b/bin/config/xlsx/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21440" windowHeight="8760"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Condition" sheetId="1" r:id="rId1"/>
@@ -818,7 +818,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1068,15 +1068,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="10" max="10" width="13.6272727272727" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1206,73 +1206,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -1295,13 +1237,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -1324,13 +1266,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
+      <c r="C12" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -1345,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1353,13 +1295,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
+      <c r="C13" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -1374,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1382,13 +1324,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -1411,13 +1353,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
@@ -1440,13 +1382,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
+      <c r="C16" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>19</v>
@@ -1469,13 +1411,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
+      <c r="C17" t="s">
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
@@ -1498,13 +1440,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>19</v>
@@ -1527,13 +1469,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -1556,13 +1498,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>19</v>
@@ -1585,13 +1527,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>19</v>
@@ -1614,28 +1556,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1643,28 +1585,28 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1672,13 +1614,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>21</v>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>19</v>
@@ -1701,13 +1643,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>22</v>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>19</v>
@@ -1730,13 +1672,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>19</v>
@@ -1759,13 +1701,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>19</v>
@@ -1788,13 +1730,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>19</v>
@@ -1817,16 +1759,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -1846,16 +1788,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -1875,16 +1817,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
@@ -1904,21 +1846,21 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G32">
@@ -1933,21 +1875,21 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G33">
@@ -1962,13 +1904,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -1991,62 +1933,120 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>28</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>8</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>30</v>
       </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36">
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
         <v>29</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>18</v>
       </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>2</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
         <v>31</v>
       </c>
     </row>
